--- a/biology/Botanique/Liliaceae/Liliaceae.xlsx
+++ b/biology/Botanique/Liliaceae/Liliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liliacées
-Les Liliacées[1] (Liliaceae Juss.) sont une famille de plantes à fleurs monocotylédones, généralement à bulbes. C'était l'une des plus importantes familles selon la classification de Cronquist (1981), avec une centaine de genres. Plus récemment, en classification phylogénétique, elle comprend toujours des plantes bien connues comme les lys (ou lis), les tulipes ou les fritillaires.
+Les Liliacées (Liliaceae Juss.) sont une famille de plantes à fleurs monocotylédones, généralement à bulbes. C'était l'une des plus importantes familles selon la classification de Cronquist (1981), avec une centaine de genres. Plus récemment, en classification phylogénétique, elle comprend toujours des plantes bien connues comme les lys (ou lis), les tulipes ou les fritillaires.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Lilium issu du latin līlĭum lis, plante, fleur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Lilium issu du latin līlĭum lis, plante, fleur.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille se compose essentiellement de plantes herbacées vivaces. Géophytes d'habitats ouverts et aux saisons courtes de croissance, elles sont pourvues d'un bulbe qui produit des pousses aériennes annuelles à développement rapide et qui persistent pendant la saison défavorable sous terre. Les fleurs à floraison éphémère émettent de signaux visuels (formes et couleurs) et olfactifs (odeurs, parfums) forts pour attirer les pollinisateurs. La dispersion des graines loin du pied producteur se fait par l'utilisation du vent (anémochorie, facilitée par des expansions légères des graines ailées)[3].
-Certaines espèces de Liliacées comestibles sont aujourd'hui classées dans la famille des Amaryllidaceae, notamment l'oignon, l'ail, l’échalote, qui produisent des bulbes très appréciés en cuisine et interviennent dans de nombreuses recettes, de même que le poireau. L'asperge fait actuellement partie de la famille des Asparagaceae. Ces plantes comestibles fournissent lors de la digestion un grand nombre de fibres alimentaires (qui ne sont pas assimilées par l'intestin grêle) et nourrissent ainsi les bactéries mutualistes de notre microbiote[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille se compose essentiellement de plantes herbacées vivaces. Géophytes d'habitats ouverts et aux saisons courtes de croissance, elles sont pourvues d'un bulbe qui produit des pousses aériennes annuelles à développement rapide et qui persistent pendant la saison défavorable sous terre. Les fleurs à floraison éphémère émettent de signaux visuels (formes et couleurs) et olfactifs (odeurs, parfums) forts pour attirer les pollinisateurs. La dispersion des graines loin du pied producteur se fait par l'utilisation du vent (anémochorie, facilitée par des expansions légères des graines ailées).
+Certaines espèces de Liliacées comestibles sont aujourd'hui classées dans la famille des Amaryllidaceae, notamment l'oignon, l'ail, l’échalote, qui produisent des bulbes très appréciés en cuisine et interviennent dans de nombreuses recettes, de même que le poireau. L'asperge fait actuellement partie de la famille des Asparagaceae. Ces plantes comestibles fournissent lors de la digestion un grand nombre de fibres alimentaires (qui ne sont pas assimilées par l'intestin grêle) et nourrissent ainsi les bactéries mutualistes de notre microbiote.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En classification classique de Cronquist (1981)[5], la famille des Liliaceae contenait une centaine de genres.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En classification classique de Cronquist (1981), la famille des Liliaceae contenait une centaine de genres.
 Les recherches récentes ont fait éclater cette famille qui n'avait rien d'un groupe monophylétique. Aujourd'hui les Liliacées proprement dites ne comptent plus que quatre cent vingt espèces réparties en une dizaine de genres, et plus d'une vingtaine de sous-familles se sont vu attribuer le statut de famille.
 Parmi les familles ayant reçu des genres anciennement dans la famille des Liliaceae, on trouve :
 famille des Alstroemeriaceae
@@ -621,8 +639,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genres restants en classification phylogénétique APG III (2009)[6]
-Selon World Checklist of Selected Plant Families (WCSP)  (4 juin 2016)[7] :
+          <t>Genres restants en classification phylogénétique APG III (2009)[6]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (4 juin 2016) :
 Amana Honda (1935) (incluse dans Tulipa par Angiosperm Phylogeny Website)
 Calochortus Pursh (1814)
 Cardiocrinum (Endl.) Lindl., Veg. Kingd. (1847)
@@ -639,7 +662,7 @@
 Streptopus Michx. (1803)
 Tricyrtis Wall. (1826)
 Tulipa L. (1753)
-Selon Angiosperm Phylogeny Website                        (4 juin 2016)[8] :
+Selon Angiosperm Phylogeny Website                        (4 juin 2016) :
 Calochortus Pursh
 Cardiocrinum (Endl.) Lindl.
 Clintonia
@@ -655,7 +678,7 @@
 Streptopus
 Tricyrtis
 Tulipa L.
-Selon NCBI  (4 juin 2016)[9] :
+Selon NCBI  (4 juin 2016) :
 Amana (incluse dans Tulipa par Angiosperm Phylogeny Website)
 Calochortus
 Cardiocrinum
@@ -671,7 +694,7 @@
 Sandersonia
 Tricyrtis
 Tulipa
-Selon DELTA Angio           (4 juin 2016)[10] :
+Selon DELTA Angio           (4 juin 2016) :
 Cardiocrinum
 Erythronium
 Fritillaria
@@ -694,8 +717,43 @@
 Notholirion
 Tricyrtis avec le Tricyrtis à feuilles larges
 Tulipa avec la tulipe
-Genres en classification classique de Cronquist (1981)[5]
-Selon GBIF       (3 juin 2022)[11] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liliaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liliaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genres en classification classique de Cronquist (1981)[5]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (3 juin 2022) :
 Agapanthus L'Her.
 Albucastrum Massalongo
 Allania Meisn.
@@ -848,7 +906,7 @@
 Velthaeimia
 Whiteheadia
 Wurmbaea
-Selon ITIS      (15 avr. 2010)[12] :
+Selon ITIS      (15 avr. 2010) :
 Abama
 Agapanthus L'Her.
 Aletris L.
@@ -950,14 +1008,83 @@
 Xerophyllum Michx.
 Zephyranthes Herbert
 Zigadenus Michx.
-Sous-familles passées au rang de familles
-Alliaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liliaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liliaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-familles passées au rang de familles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Alliaceae
 Colchicaceae avec les colchiques
 Hyacinthaceae
 Melanthiaceae
-etc.[Lesquelles ?]
-Confusions possibles
-Certaines espèces de Liliaceae peuvent être confondues avec des espèces de la famille des Amaryllidaceae, par exemple les Nivéoles (genres Leucojum, Galanthus, Acis) sont des Liliaceae en classification classique de Cronquist (1981)[5] et des Amaryllidaceae en classification phylogénétique APG III (2009)[6].
+etc.[Lesquelles ?]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liliaceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liliaceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces de Liliaceae peuvent être confondues avec des espèces de la famille des Amaryllidaceae, par exemple les Nivéoles (genres Leucojum, Galanthus, Acis) sont des Liliaceae en classification classique de Cronquist (1981) et des Amaryllidaceae en classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
